--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C7D16-45A2-4641-8790-8A0E0F0D9F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F52C95D-AAB5-4F72-9DCD-BEDDBD06C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="315" windowWidth="16800" windowHeight="10095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22395" yWindow="1320" windowWidth="28800" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Excitation</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Approx total</t>
+  </si>
+  <si>
+    <t>Di-4-Anepps optimal</t>
   </si>
 </sst>
 </file>
@@ -407,20 +410,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -430,13 +436,19 @@
       <c r="C2">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -446,8 +458,14 @@
       <c r="C5">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>625</v>
+      </c>
+      <c r="H5">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -467,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F140F6-AA0E-4D8F-906F-70431C04E400}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F52C95D-AAB5-4F72-9DCD-BEDDBD06C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50721D97-0CB9-4F49-84A6-7A3CE22A9FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22395" yWindow="1320" windowWidth="28800" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Excitation</t>
   </si>
@@ -79,7 +79,16 @@
     <t>Approx total</t>
   </si>
   <si>
-    <t>Di-4-Anepps optimal</t>
+    <t>Di-4-Anepps optimal range</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>LED spectrum</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -89,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +109,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,16 +162,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -145,6 +191,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13CC95E-5A32-4867-9D43-FD3E9D99AE81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6677025" y="2647950"/>
+          <a:ext cx="7429500" cy="5114925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,23 +522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -434,7 +546,10 @@
         <v>534</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G2">
         <v>500</v>
@@ -443,12 +558,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -458,6 +573,9 @@
       <c r="C5">
         <v>75</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G5">
         <v>625</v>
       </c>
@@ -465,19 +583,38 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <v>580</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{36C545EC-EBEE-4C17-9610-49267E1FB5EF}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{7052035B-2D84-4427-8DE4-F0F8629DDC92}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{C1243ABD-EABA-489B-823C-484396C1A96B}"/>
+    <hyperlink ref="P12" r:id="rId4" xr:uid="{5050FDE4-66F6-4D69-BDC2-46480599A347}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50721D97-0CB9-4F49-84A6-7A3CE22A9FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E4840-74F3-4C37-8D8D-5ECB6D09BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Excitation</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Emmision</t>
   </si>
 </sst>
 </file>
@@ -256,6 +259,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>493714</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>132857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D3C23D-6D71-44CB-9ED8-289DF4D23EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="10877550"/>
+          <a:ext cx="12685714" cy="3942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -522,13 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -603,6 +653,27 @@
       </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>605</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E4840-74F3-4C37-8D8D-5ECB6D09BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA37ED3-0BED-4B76-95F9-A7E8D47E06C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Excitation</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Emmision</t>
+  </si>
+  <si>
+    <t>For neurobiotin</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +677,11 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA37ED3-0BED-4B76-95F9-A7E8D47E06C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CFC0B-2422-43DC-93C6-3A9CBACD920F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32070" yWindow="1480" windowWidth="29040" windowHeight="14390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Excitation</t>
   </si>
@@ -95,6 +95,48 @@
   </si>
   <si>
     <t>For neurobiotin</t>
+  </si>
+  <si>
+    <t>M340L5</t>
+  </si>
+  <si>
+    <t>M375L4</t>
+  </si>
+  <si>
+    <t>DSM-2RM</t>
+  </si>
+  <si>
+    <t>cage plate</t>
+  </si>
+  <si>
+    <t>Thorlabs</t>
+  </si>
+  <si>
+    <t>collimator</t>
+  </si>
+  <si>
+    <t>solis collim</t>
+  </si>
+  <si>
+    <t>LED driver</t>
+  </si>
+  <si>
+    <t>Chroma</t>
+  </si>
+  <si>
+    <t>79001-ET-Fura</t>
+  </si>
+  <si>
+    <t>https://www.omegafilters.com/product/3951</t>
+  </si>
+  <si>
+    <t>https://www.omegafilters.com/product/3648</t>
+  </si>
+  <si>
+    <t>https://www.chroma.com/products/parts/et645-75m</t>
+  </si>
+  <si>
+    <t>https://www.chroma.com/products/parts/t760lpxr</t>
   </si>
 </sst>
 </file>
@@ -210,9 +252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>92075</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,15 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -679,9 +722,192 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>975</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>C26*D26</f>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>421</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>C27*D27</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>194</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E34" si="0">C28*D28</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>700</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>527</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f>SUM(E26:E34)</f>
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G56" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>625</v>
+      </c>
+      <c r="C66">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +916,14 @@
     <hyperlink ref="D5" r:id="rId2" xr:uid="{7052035B-2D84-4427-8DE4-F0F8629DDC92}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{C1243ABD-EABA-489B-823C-484396C1A96B}"/>
     <hyperlink ref="P12" r:id="rId4" xr:uid="{5050FDE4-66F6-4D69-BDC2-46480599A347}"/>
+    <hyperlink ref="B57" r:id="rId5" xr:uid="{1DDCC8F2-B515-494A-BF40-C28161A283BC}"/>
+    <hyperlink ref="B56" r:id="rId6" xr:uid="{EFD81A93-FB4A-490C-9034-C486254DB5F4}"/>
+    <hyperlink ref="B58" r:id="rId7" xr:uid="{EC331FBE-6991-4A05-9979-25A80711ED3E}"/>
+    <hyperlink ref="B59" r:id="rId8" xr:uid="{50B83628-7303-4503-8E5F-83A617E30E04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CFC0B-2422-43DC-93C6-3A9CBACD920F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D435E7-A0B7-44E2-9284-D273360ECDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32070" yWindow="1480" windowWidth="29040" windowHeight="14390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-33750" yWindow="3510" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D435E7-A0B7-44E2-9284-D273360ECDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B035B72-8E3B-4EE2-A5E5-80D9A2BBD344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-33750" yWindow="3510" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="2835" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B035B72-8E3B-4EE2-A5E5-80D9A2BBD344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E2DA13-5B6D-4605-A967-E9DC469303E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="2835" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="435" windowWidth="28800" windowHeight="20355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Excitation</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>https://www.chroma.com/products/parts/t760lpxr</t>
+  </si>
+  <si>
+    <t>https://www.chroma.com/products/parts/59022m</t>
+  </si>
+  <si>
+    <t>59022m</t>
   </si>
 </sst>
 </file>
@@ -616,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +728,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>350</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>C25*D25</f>
+        <v>350</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -740,7 +764,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -758,7 +782,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>21</v>
       </c>
@@ -773,7 +797,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -788,7 +812,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -803,7 +827,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -818,7 +842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>25</v>
       </c>

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E2DA13-5B6D-4605-A967-E9DC469303E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CCD1B1-97BD-44A2-8B58-70AB3C57BA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="435" windowWidth="28800" windowHeight="20355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37910" yWindow="430" windowWidth="26070" windowHeight="18290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
-    <sheet name="di-4-ANBDQBS" sheetId="2" r:id="rId2"/>
+    <sheet name="Di4+XRhod-1" sheetId="3" r:id="rId2"/>
+    <sheet name="di-4-ANBDQBS" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Excitation</t>
   </si>
@@ -143,6 +144,27 @@
   </si>
   <si>
     <t>59022m</t>
+  </si>
+  <si>
+    <t>630/30</t>
+  </si>
+  <si>
+    <t>https://www.chroma.com/products/parts/et630-30m</t>
+  </si>
+  <si>
+    <t>Spectra viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thermofisher.com/order/fluorescence-spectraviewer/?gclid=Cj0KCQiA35urBhDCARIsAOU7QwkJdR5qzC1mJfqlOGIGyriPQyTdkU231cx6utesfm4QByw_HxC26e0aAgSTEALw_wcB&amp;ef_id=Cj0KCQiA35urBhDCARIsAOU7QwkJdR5qzC1mJfqlOGIGyriPQyTdkU231cx6utesfm4QByw_HxC26e0aAgSTEALw_wcB:G:s&amp;s_kwcid=AL!3652!3!607635415877!p!!g!!thermo%20fisher%20spectral%20viewer!2081760689!127753028375&amp;cid=bid_pca_aup_r01_co_cp1359_pjt0000_bid00000_0se_gaw_bt_pur_con&amp;gad_source=1#!/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.chroma.com/products/parts/t610lpxr </t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/374262345_Recent_advances_and_current_limitations_of_available_technology_to_optically_manipulate_and_observe_cardiac_electrophysiology</t>
   </si>
 </sst>
 </file>
@@ -251,16 +273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -290,8 +312,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6677025" y="2647950"/>
-          <a:ext cx="7429500" cy="5114925"/>
+          <a:off x="10007600" y="2901950"/>
+          <a:ext cx="7432675" cy="5121275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -622,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +764,7 @@
         <f>C25*D25</f>
         <v>350</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -944,19 +966,78 @@
     <hyperlink ref="B56" r:id="rId6" xr:uid="{EFD81A93-FB4A-490C-9034-C486254DB5F4}"/>
     <hyperlink ref="B58" r:id="rId7" xr:uid="{EC331FBE-6991-4A05-9979-25A80711ED3E}"/>
     <hyperlink ref="B59" r:id="rId8" xr:uid="{50B83628-7303-4503-8E5F-83A617E30E04}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{EB953B0D-47CC-4F7F-8205-7C2A8A4808C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D9A46-42E3-4EDC-8147-D1FB147932EC}">
+  <dimension ref="A4:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>610</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" location="!/ " display="https://www.thermofisher.com/order/fluorescence-spectraviewer/?gclid=Cj0KCQiA35urBhDCARIsAOU7QwkJdR5qzC1mJfqlOGIGyriPQyTdkU231cx6utesfm4QByw_HxC26e0aAgSTEALw_wcB&amp;ef_id=Cj0KCQiA35urBhDCARIsAOU7QwkJdR5qzC1mJfqlOGIGyriPQyTdkU231cx6utesfm4QByw_HxC26e0aAgSTEALw_wcB:G:s&amp;s_kwcid=AL!3652!3!607635415877!p!!g!!thermo%20fisher%20spectral%20viewer!2081760689!127753028375&amp;cid=bid_pca_aup_r01_co_cp1359_pjt0000_bid00000_0se_gaw_bt_pur_con&amp;gad_source=1#!/ " xr:uid="{3C9A89D0-E87E-4652-9B01-8162CA626EFA}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{7B0E29AB-4E9E-4CAC-A1DF-42F4AE1AFBE7}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{524C7927-67A3-47B2-AC64-D6F597788B8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F140F6-AA0E-4D8F-906F-70431C04E400}">
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optical_filter_set.xlsx
+++ b/optical_filter_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cneveu\Documents\GitHub\VSD_CFE_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CCD1B1-97BD-44A2-8B58-70AB3C57BA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD52AE-1A77-4015-8409-A067D965D0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37910" yWindow="430" windowWidth="26070" windowHeight="18290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37240" yWindow="1420" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="di-4-ANNEPS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Excitation</t>
   </si>
@@ -165,6 +165,33 @@
   </si>
   <si>
     <t>https://www.researchgate.net/publication/374262345_Recent_advances_and_current_limitations_of_available_technology_to_optically_manipulate_and_observe_cardiac_electrophysiology</t>
+  </si>
+  <si>
+    <t>Dichroic mirror</t>
+  </si>
+  <si>
+    <t>Emission Filter</t>
+  </si>
+  <si>
+    <t>Filter Cube</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>Dyes</t>
+  </si>
+  <si>
+    <t>X-Rhod-1</t>
+  </si>
+  <si>
+    <t>Cal-630</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -229,12 +256,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -243,13 +285,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -976,13 +1025,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D9A46-42E3-4EDC-8147-D1FB147932EC}">
-  <dimension ref="A4:D22"/>
+  <dimension ref="A4:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1014,12 +1068,94 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="8">
+        <v>250</v>
+      </c>
+      <c r="J29" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="8">
+        <v>365</v>
+      </c>
+      <c r="J30" s="8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="8">
+        <v>494</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="8">
+        <v>454</v>
+      </c>
+      <c r="J33" s="8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="8">
+        <v>341</v>
+      </c>
+      <c r="J34" s="8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="10">
+        <f>SUM(I29:I34)</f>
+        <v>1904</v>
+      </c>
+      <c r="J35" s="10">
+        <f>SUM(J29:J34)</f>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -1029,6 +1165,7 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{524C7927-67A3-47B2-AC64-D6F597788B8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
